--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3922.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3922.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.458152208723801</v>
+        <v>1.204320311546326</v>
       </c>
       <c r="B1">
-        <v>2.220185125479932</v>
+        <v>1.384949445724487</v>
       </c>
       <c r="C1">
-        <v>4.985893218052712</v>
+        <v>1.995141983032227</v>
       </c>
       <c r="D1">
-        <v>5.007810710566643</v>
+        <v>1.967057466506958</v>
       </c>
       <c r="E1">
-        <v>1.097711397273826</v>
+        <v>1.012821435928345</v>
       </c>
     </row>
   </sheetData>
